--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3305220.242836805</v>
+        <v>3302676.433329724</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>85.20115868761665</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>85.20115868761653</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>160.1693433169005</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.18456372565646</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.14576679396759</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>204.2688325015154</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.568965117905</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>178.7818072471469</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>89.14525753719049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.52680643158895</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.6128256968458</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>194.974700771128</v>
+        <v>119.9986126802053</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614515</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662933</v>
+        <v>18.47335059660094</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180314</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640957</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>198.7422597397458</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
-        <v>120.7871326503972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634838</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337052</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206847</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472312</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648966</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206837</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724374</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>107.1588868522585</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>814.482942342551</v>
       </c>
       <c r="U2" t="n">
-        <v>646.859700735818</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V2" t="n">
-        <v>380.48204416864</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.104387601462</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.544000427793</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>486.090971146666</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1565614854147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>177.9191064799592</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>31.3845485068442</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>357.3373551528642</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478611</v>
+        <v>357.3373551528642</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.42616776776453</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>39.42616776776453</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>39.42616776776453</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>39.42616776776453</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388467</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329599</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>39.42616776776453</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.42616776776453</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571245</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
         <v>307.3840804899464</v>
@@ -4556,31 +4556,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4607,10 +4607,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243026</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243026</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278689</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496284</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178858</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>318.9943252896841</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X6" t="n">
-        <v>111.1428250841513</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560.4883125408294</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>560.4883125408294</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>410.3716731284936</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>262.4585795461005</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>115.5686320481902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>115.5686320481902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>672.7073324319316</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388467</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408294</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.4883125408294</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783.823588302857</v>
+        <v>1708.090165988793</v>
       </c>
       <c r="C8" t="n">
-        <v>1414.861071362446</v>
+        <v>1339.127649048381</v>
       </c>
       <c r="D8" t="n">
-        <v>1056.595372755695</v>
+        <v>980.8619504416311</v>
       </c>
       <c r="E8" t="n">
-        <v>670.8071201574508</v>
+        <v>595.0736978433868</v>
       </c>
       <c r="F8" t="n">
-        <v>259.8212153678432</v>
+        <v>588.1281970941833</v>
       </c>
       <c r="G8" t="n">
-        <v>248.1553973999144</v>
+        <v>172.4219750858505</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685581</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685581</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467153</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607434</v>
+        <v>442.1757437607382</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045949</v>
+        <v>795.1862829045858</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995217</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.591685209571</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940601</v>
+        <v>2053.90571894058</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550204</v>
+        <v>2359.35653055018</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.564622661143</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342762</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342762</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342791</v>
+        <v>2351.810676439035</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342791</v>
+        <v>2098.229497964605</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342791</v>
+        <v>2098.229497964605</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342791</v>
+        <v>2098.229497964605</v>
       </c>
       <c r="X8" t="n">
-        <v>2560.562760342791</v>
+        <v>2098.229497964605</v>
       </c>
       <c r="Y8" t="n">
-        <v>2170.423428366979</v>
+        <v>1708.090165988793</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010855</v>
+        <v>929.5097208010563</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199585</v>
+        <v>755.0566915199294</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587072</v>
+        <v>606.1222818586781</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532517</v>
+        <v>446.8848268532226</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801367</v>
+        <v>300.3502688801076</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763249</v>
+        <v>163.6480708762957</v>
       </c>
       <c r="H9" t="n">
-        <v>69.8712053044612</v>
+        <v>69.87120530443195</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685581</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.4887579637175</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148189</v>
+        <v>298.0857543148153</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483008</v>
+        <v>592.6217377482947</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287032</v>
+        <v>955.6882062225936</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471873</v>
+        <v>1564.570720174562</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459263</v>
+        <v>2198.310003359396</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888887</v>
+        <v>2445.345361789018</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442633</v>
+        <v>2560.562760342762</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342762</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251706</v>
+        <v>2424.826280251677</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685355</v>
+        <v>2230.816477685326</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751584</v>
+        <v>2002.726321751555</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519842</v>
+        <v>1767.574213519813</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.33685679164</v>
+        <v>1513.336856791611</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586107</v>
+        <v>1305.485356586078</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1097.725057821124</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686172</v>
+        <v>349.2409882015841</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407103</v>
+        <v>349.2409882015841</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283746</v>
+        <v>199.1243487892484</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459815</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480711</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685581</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685581</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685581</v>
+        <v>51.21125520685524</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838018</v>
+        <v>76.63468308380052</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676574</v>
+        <v>248.250021567655</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336893</v>
+        <v>523.385004336889</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904049</v>
+        <v>823.8653899903993</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101607</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931085</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616493</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477355</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412612</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412612</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1310.174753887017</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>1021.056380381659</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477365</v>
+        <v>1021.056380381659</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440404</v>
+        <v>731.6392103446983</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542387</v>
+        <v>731.6392103446983</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.569845398857</v>
+        <v>530.8894530318238</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5121,22 +5121,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453428</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453428</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,10 +5832,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,13 +6212,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,49 +6227,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>560.7825789706083</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427012</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>241.7297566303653</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797206</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,34 +6479,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6707,43 +6707,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939063</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>175.8744207939063</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273902</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>95.584050252739</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>95.584050252739</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245714</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>776.17510664033</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266882</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,34 +7661,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1360811687904</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>904.461687384549</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.840175011101</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7798,58 +7798,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.65412723258</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415543</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004336</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538087</v>
+        <v>224.0384964438399</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.9014880782287</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348564</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
-        <v>44.73700564187163</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823224</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534892</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719817</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485087</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>719550.2862876087</v>
+        <v>719550.2862876086</v>
       </c>
     </row>
     <row r="5">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580807</v>
+        <v>390680.0076580738</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606917</v>
+        <v>507909.2320606982</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>5.237009190750541e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911391</v>
+        <v>68999.15441911397</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101811</v>
+        <v>95270.23779101642</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954702</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.068387089334559e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631774</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447205</v>
+        <v>141668.8507447225</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680572</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680561</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680574</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.97621680572</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>11776.97621680584</v>
       </c>
-      <c r="H4" t="n">
-        <v>11776.97621680584</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680587</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680588</v>
-      </c>
       <c r="O4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567855</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256320.2561807817</v>
+        <v>-256320.2561807812</v>
       </c>
       <c r="C6" t="n">
-        <v>423767.7244104115</v>
+        <v>423767.7244104113</v>
       </c>
       <c r="D6" t="n">
-        <v>113685.8668993744</v>
+        <v>113685.8668993797</v>
       </c>
       <c r="E6" t="n">
-        <v>105623.2016196004</v>
+        <v>105588.4636941582</v>
       </c>
       <c r="F6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548569</v>
       </c>
       <c r="G6" t="n">
-        <v>613532.4336802925</v>
+        <v>613497.695754857</v>
       </c>
       <c r="H6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="I6" t="n">
-        <v>613532.4336802921</v>
+        <v>613497.6957548561</v>
       </c>
       <c r="J6" t="n">
-        <v>544533.2792611783</v>
+        <v>544498.5413357428</v>
       </c>
       <c r="K6" t="n">
-        <v>613532.4336802925</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="L6" t="n">
-        <v>518262.1958892743</v>
+        <v>518227.4579638403</v>
       </c>
       <c r="M6" t="n">
-        <v>480814.4579848236</v>
+        <v>480779.7200593865</v>
       </c>
       <c r="N6" t="n">
-        <v>613532.4336802925</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="O6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="P6" t="n">
-        <v>613532.4336802925</v>
+        <v>613497.6957548566</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627787</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856977</v>
+        <v>640.1406900856905</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,16 +26808,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.335483861668198e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933059</v>
+        <v>319.6474457933004</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788897</v>
+        <v>434.2730407788951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841915</v>
+        <v>376.4268100841844</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139507</v>
+        <v>532.5675980139579</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841915</v>
+        <v>376.4268100841848</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139572</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841915</v>
+        <v>376.4268100841844</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139507</v>
+        <v>532.5675980139579</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>327.6330159580933</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.363840332966845</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>125.838155860767</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>127.2752812289636</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>47.86881082231261</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.162135560564</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>47.07268025640772</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>116.5374382401139</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>58.85535290426783</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>12.89177718681809</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,13 +27828,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>106.0587734491724</v>
+        <v>181.0348615400953</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>65.76608425465099</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.485417134841</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164522941</v>
+        <v>1.776449164551742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.961534289903</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430997</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.84239361234901</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.868909745143369e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.868909745143369e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,13 +29272,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-3.215436193166734e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-4.251924341903105e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.75357772688554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546654</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157549</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972519</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763169</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354903</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.095405035991</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525046</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307864</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690982996</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542111</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.785676886474</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140433</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944146</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508431</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.00834113943692</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035131</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026239</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079417</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502153</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571261</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617143</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.336058015219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519062</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947572</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.362984746369</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204783</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366382</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133899</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419027</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752551</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254839997</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415857</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954054</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.618318577251</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490112</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023113</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462338</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046244</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708722</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939796</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.7064322130738</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658764</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942719</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650293</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>324.5433647340724</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -32813,7 +32813,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>396.9700886943659</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>491.597732526531</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524589</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.482598761492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>268.6704608606959</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305202</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>456.3459017226606</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043496</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181793</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705656</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313363</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.576302165503</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087183</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559137</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078090997</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.53617334303</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.0384768797616</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234187</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127614</v>
+        <v>62.906568441275</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758583</v>
+        <v>186.4616124758563</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>297.5110943772519</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401326</v>
+        <v>366.733806539696</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856977</v>
+        <v>615.0328423757256</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>640.1406900856905</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804292</v>
+        <v>249.530665080427</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603475</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783592</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873261</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513681</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093273</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641519</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254624</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186641</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357656</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228519</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>182.4093308120541</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723476</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36768,10 +36768,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>349.0014880820866</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579226</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394736</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561612</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>318.5044627483016</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
